--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.299372</v>
+        <v>1.980692333333333</v>
       </c>
       <c r="H2">
-        <v>9.898116</v>
+        <v>5.942077</v>
       </c>
       <c r="I2">
-        <v>0.09201439840198389</v>
+        <v>0.05936223023346642</v>
       </c>
       <c r="J2">
-        <v>0.09547380931771403</v>
+        <v>0.06064826789587062</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.6157035074546667</v>
+        <v>0.3696216179387778</v>
       </c>
       <c r="R2">
-        <v>5.541331567092</v>
+        <v>3.326594561449</v>
       </c>
       <c r="S2">
-        <v>0.09201439840198389</v>
+        <v>0.05936223023346642</v>
       </c>
       <c r="T2">
-        <v>0.09547380931771403</v>
+        <v>0.06064826789587062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.641089666666667</v>
+        <v>2.641089666666666</v>
       </c>
       <c r="H3">
-        <v>7.923269000000001</v>
+        <v>7.923268999999999</v>
       </c>
       <c r="I3">
-        <v>0.07365591900641381</v>
+        <v>0.07915463205537174</v>
       </c>
       <c r="J3">
-        <v>0.07642511703024644</v>
+        <v>0.0808694570809242</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4928599052392224</v>
+        <v>0.4928599052392222</v>
       </c>
       <c r="R3">
-        <v>4.435739147153001</v>
+        <v>4.435739147153</v>
       </c>
       <c r="S3">
-        <v>0.07365591900641381</v>
+        <v>0.07915463205537174</v>
       </c>
       <c r="T3">
-        <v>0.07642511703024644</v>
+        <v>0.0808694570809242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.59893466666667</v>
+        <v>14.555427</v>
       </c>
       <c r="H4">
-        <v>31.796804</v>
+        <v>43.666281</v>
       </c>
       <c r="I4">
-        <v>0.2955879473594566</v>
+        <v>0.4362326213815876</v>
       </c>
       <c r="J4">
-        <v>0.3067009925938156</v>
+        <v>0.445683270025677</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.977891928994223</v>
+        <v>2.716222195133</v>
       </c>
       <c r="R4">
-        <v>17.801027360948</v>
+        <v>24.445999756197</v>
       </c>
       <c r="S4">
-        <v>0.2955879473594566</v>
+        <v>0.4362326213815876</v>
       </c>
       <c r="T4">
-        <v>0.3067009925938156</v>
+        <v>0.445683270025677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.897756</v>
+        <v>2.1225765</v>
       </c>
       <c r="H5">
-        <v>7.795512</v>
+        <v>4.245153</v>
       </c>
       <c r="I5">
-        <v>0.1087024056268051</v>
+        <v>0.06361456181793605</v>
       </c>
       <c r="J5">
-        <v>0.07519281712014202</v>
+        <v>0.04332848201108112</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.7273693419240002</v>
+        <v>0.3960989533435</v>
       </c>
       <c r="R5">
-        <v>4.364216051544</v>
+        <v>2.376593720061</v>
       </c>
       <c r="S5">
-        <v>0.1087024056268051</v>
+        <v>0.06361456181793605</v>
       </c>
       <c r="T5">
-        <v>0.07519281712014202</v>
+        <v>0.04332848201108112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.419975</v>
+        <v>12.06641933333333</v>
       </c>
       <c r="H6">
-        <v>46.259925</v>
+        <v>36.199258</v>
       </c>
       <c r="I6">
-        <v>0.4300393296053405</v>
+        <v>0.3616359545116381</v>
       </c>
       <c r="J6">
-        <v>0.446207263938082</v>
+        <v>0.3694705229864469</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2.877557514691667</v>
+        <v>2.251742666771778</v>
       </c>
       <c r="R6">
-        <v>25.898017632225</v>
+        <v>20.265684000946</v>
       </c>
       <c r="S6">
-        <v>0.4300393296053405</v>
+        <v>0.3616359545116381</v>
       </c>
       <c r="T6">
-        <v>0.446207263938082</v>
+        <v>0.3694705229864469</v>
       </c>
     </row>
   </sheetData>
